--- a/毕业论文/Table/工作簿1.xlsx
+++ b/毕业论文/Table/工作簿1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master-s-thesis\Master-s-thesis\毕业论文\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\毕业论文\Master-s-thesis\毕业论文\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47859BAA-A315-43E1-A4C0-20760BD0AD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB64502D-4771-487F-A9EE-2B39B12DD718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C62A79DD-B13B-4E37-9B38-32DE39ADAD9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C62A79DD-B13B-4E37-9B38-32DE39ADAD9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -256,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +284,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -649,11 +651,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5647D012-4C15-4810-B12F-2909697529E3}">
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -665,7 +667,7 @@
     <col min="9" max="9" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -691,7 +693,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
@@ -717,7 +719,7 @@
         <v>8.2084000000000004E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -743,7 +745,7 @@
         <v>7.9592999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -769,7 +771,7 @@
         <v>7.7134999999999995E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,7 +797,7 @@
         <v>6.5632999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -821,7 +823,7 @@
         <v>6.2178999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,7 +849,7 @@
         <v>5.7023999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,7 +875,7 @@
         <v>4.4637999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -899,7 +901,7 @@
         <v>4.1903999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,7 +927,7 @@
         <v>3.7880999999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,7 +953,7 @@
         <v>3.6747000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -977,7 +979,7 @@
         <v>3.4033000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,7 +1005,7 @@
         <v>3.3222000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1029,7 +1031,7 @@
         <v>3.0818999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1055,7 +1057,7 @@
         <v>2.3448E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1081,7 +1083,7 @@
         <v>2.1894E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1107,7 +1109,7 @@
         <v>2.0253E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1133,7 +1135,7 @@
         <v>1.8977000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1159,7 +1161,7 @@
         <v>1.5771E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1185,7 +1187,7 @@
         <v>3.9199999999999999E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1211,7 +1213,7 @@
         <v>3.9199999999999999E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1237,7 +1239,7 @@
         <v>3.9199999999999999E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1263,7 +1265,7 @@
         <v>3.9199999999999999E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>-1.0016000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1315,7 +1317,7 @@
         <v>-2.7012999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1341,7 +1343,7 @@
         <v>-2.8053999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1367,7 +1369,7 @@
         <v>-2.904E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1393,7 +1395,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1419,7 +1421,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1445,7 +1447,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1471,7 +1473,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1">
+    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1486,10 +1488,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" ht="15">
+    <row r="33" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:9" s="4" customFormat="1">
+    <row r="34" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
@@ -1515,7 +1517,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>"RTL_"&amp;A2</f>
         <v>RTL_CONDITIONALELSE</v>
@@ -1545,7 +1547,7 @@
         <v>8.2084000000000004E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" ref="A36:A65" si="0">"RTL_"&amp;A3</f>
         <v>RTL_NonBlockLeftWidth</v>
@@ -1575,7 +1577,7 @@
         <v>7.9592999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>RTL_PLUS</v>
@@ -1605,7 +1607,7 @@
         <v>7.7134999999999995E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>RTL_NonBlockingAssign</v>
@@ -1635,7 +1637,7 @@
         <v>6.5632999999999997E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>RTL_CONDITIONALTHEN</v>
@@ -1665,7 +1667,7 @@
         <v>6.2178999999999998E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>RTL_CONDITIONALIF</v>
@@ -1695,7 +1697,7 @@
         <v>5.7023999999999998E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>RTL_NonBlockingLeftPortNum</v>
@@ -1725,7 +1727,7 @@
         <v>4.4637999999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>RTL_REG</v>
@@ -1755,7 +1757,7 @@
         <v>4.1903999999999997E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>RTL_AlwaysConstructs</v>
@@ -1785,7 +1787,7 @@
         <v>3.7880999999999998E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>RTL_CONDITIONALIFWIDTH</v>
@@ -1815,7 +1817,7 @@
         <v>3.6747000000000002E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>RTL_REDAND</v>
@@ -1845,7 +1847,7 @@
         <v>3.4033000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>RTL_MIN</v>
@@ -1875,7 +1877,7 @@
         <v>3.3222000000000002E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>RTL_CASEITEMNUM</v>
@@ -1905,7 +1907,7 @@
         <v>3.0818999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>RTL_NonBlockRightWidth</v>
@@ -1935,7 +1937,7 @@
         <v>2.3448E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>RTL_CASECONDITIONNUM</v>
@@ -1965,7 +1967,7 @@
         <v>2.1894E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>RTL_OUTPUTWIDTH</v>
@@ -1995,7 +1997,7 @@
         <v>2.0253E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>RTL_AssignLHSWidth</v>
@@ -2025,7 +2027,7 @@
         <v>1.8977000000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>"RTL_"&amp;A19</f>
         <v>RTL_INPUTWIDTH</v>
@@ -2055,7 +2057,7 @@
         <v>1.5771E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>RTL_CASECONDITIONWIDTH</v>
@@ -2085,7 +2087,7 @@
         <v>3.9199999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>RTL_AssignRHSWidth</v>
@@ -2115,7 +2117,7 @@
         <v>3.9199999999999999E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>RTL_NonBlockingRightPortNum</v>
@@ -2145,7 +2147,7 @@
         <v>3.9199999999999999E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>RTL_BlockAssign_Left_Width</v>
@@ -2175,7 +2177,7 @@
         <v>3.9199999999999999E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>RTL_ARITRSHIFT_PORT_NUM</v>
@@ -2205,7 +2207,7 @@
         <v>-1.0016000000000001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>RTL_WIREWIDTH</v>
@@ -2235,7 +2237,7 @@
         <v>-2.7012999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>RTL_BLOCKINGASSIGN</v>
@@ -2265,7 +2267,7 @@
         <v>-2.8053999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>RTL_INPUT</v>
@@ -2295,7 +2297,7 @@
         <v>-2.904E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>RTL_ARITRSHIFT</v>
@@ -2325,7 +2327,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>RTL_ARITRSHIFT_PORT_WIDTH</v>
@@ -2355,7 +2357,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>RTL_WIRENUM</v>
@@ -2385,7 +2387,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>RTL_BlockAssign_Right_Width</v>
@@ -2415,7 +2417,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>RTL_OUTPUT</v>
@@ -2432,10 +2434,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>62</v>
       </c>
@@ -2462,7 +2464,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
@@ -2490,7 +2492,7 @@
         <v>0.10284500000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>15</v>
       </c>
@@ -2518,7 +2520,7 @@
         <v>9.7238000000000005E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>23</v>
       </c>
@@ -2546,7 +2548,7 @@
         <v>9.7238000000000005E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>19</v>
       </c>
@@ -2574,7 +2576,7 @@
         <v>9.7238000000000005E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>30</v>
       </c>
@@ -2602,7 +2604,7 @@
         <v>9.7238000000000005E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>25</v>
       </c>
@@ -2630,7 +2632,7 @@
         <v>9.3035999999999994E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>29</v>
       </c>
@@ -2658,7 +2660,7 @@
         <v>8.3526000000000003E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>28</v>
       </c>
@@ -2686,7 +2688,7 @@
         <v>7.9218999999999998E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -2714,7 +2716,7 @@
         <v>7.6343999999999995E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>14</v>
       </c>
@@ -2742,7 +2744,7 @@
         <v>6.3639000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>33</v>
       </c>
@@ -2770,7 +2772,7 @@
         <v>4.9296E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
@@ -2798,7 +2800,7 @@
         <v>4.4174999999999999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>16</v>
       </c>
@@ -2826,7 +2828,7 @@
         <v>3.8975999999999997E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>35</v>
       </c>
@@ -2854,7 +2856,7 @@
         <v>2.6546E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>39</v>
       </c>
@@ -2882,7 +2884,7 @@
         <v>1.3939999999999999E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
@@ -2910,7 +2912,7 @@
         <v>4.6239999999999996E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -2938,7 +2940,7 @@
         <v>2.4099999999999998E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>7</v>
       </c>
@@ -2966,7 +2968,7 @@
         <v>-1.3929999999999999E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -2994,7 +2996,7 @@
         <v>-2.5300000000000001E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>4</v>
       </c>
@@ -3022,7 +3024,7 @@
         <v>-5.3229999999999996E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -3050,7 +3052,7 @@
         <v>-9.6629999999999997E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
@@ -3078,7 +3080,7 @@
         <v>-1.1191E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>1</v>
       </c>
@@ -3106,7 +3108,7 @@
         <v>-1.3197E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>20</v>
       </c>
@@ -3134,7 +3136,7 @@
         <v>-1.619E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>24</v>
       </c>
@@ -3162,7 +3164,7 @@
         <v>-4.0821999999999997E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>18</v>
       </c>
@@ -3190,7 +3192,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>3</v>
       </c>
@@ -3218,7 +3220,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
@@ -3246,7 +3248,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>51</v>
       </c>
@@ -3274,7 +3276,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>36</v>
       </c>
@@ -3302,7 +3304,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -3317,7 +3319,7 @@
         <v>0.107531</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>62</v>
       </c>
@@ -3343,7 +3345,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -3371,7 +3373,7 @@
         <v>9.1485999999999998E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>4</v>
       </c>
@@ -3392,14 +3394,14 @@
         <v>0.48217199999999999</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" ref="H102:H131" si="7">"RTL_"&amp;C102</f>
+        <f t="shared" ref="H102:H130" si="7">"RTL_"&amp;C102</f>
         <v>RTL_INPUTWIDTH</v>
       </c>
       <c r="I102">
         <v>6.7950999999999998E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>5</v>
       </c>
@@ -3427,7 +3429,7 @@
         <v>6.1723E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>7</v>
       </c>
@@ -3455,7 +3457,7 @@
         <v>5.3227999999999998E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>8</v>
       </c>
@@ -3483,7 +3485,7 @@
         <v>3.7454000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -3511,7 +3513,7 @@
         <v>3.6228999999999997E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>6</v>
       </c>
@@ -3539,7 +3541,7 @@
         <v>3.5517E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>10</v>
       </c>
@@ -3567,7 +3569,7 @@
         <v>3.3994999999999997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>9</v>
       </c>
@@ -3595,7 +3597,7 @@
         <v>1.6621E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>2</v>
       </c>
@@ -3623,7 +3625,7 @@
         <v>1.5821999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>37</v>
       </c>
@@ -3651,7 +3653,7 @@
         <v>1.4272E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>18</v>
       </c>
@@ -3679,7 +3681,7 @@
         <v>9.5309999999999995E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>1</v>
       </c>
@@ -3707,7 +3709,7 @@
         <v>8.3359999999999997E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>14</v>
       </c>
@@ -3735,7 +3737,7 @@
         <v>-2.441E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>25</v>
       </c>
@@ -3763,7 +3765,7 @@
         <v>-7.8320000000000004E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>46</v>
       </c>
@@ -3791,7 +3793,7 @@
         <v>-1.0132E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>13</v>
       </c>
@@ -3819,7 +3821,7 @@
         <v>-1.4562E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>28</v>
       </c>
@@ -3847,7 +3849,7 @@
         <v>-1.9116000000000001E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>36</v>
       </c>
@@ -3875,7 +3877,7 @@
         <v>-2.1201999999999999E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>12</v>
       </c>
@@ -3903,7 +3905,7 @@
         <v>-2.1201999999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>39</v>
       </c>
@@ -3931,7 +3933,7 @@
         <v>-2.1201999999999999E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>30</v>
       </c>
@@ -3959,7 +3961,7 @@
         <v>-2.1201999999999999E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>53</v>
       </c>
@@ -3987,7 +3989,7 @@
         <v>-7.8592999999999996E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>20</v>
       </c>
@@ -4015,7 +4017,7 @@
         <v>-9.2319999999999999E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>51</v>
       </c>
@@ -4043,7 +4045,7 @@
         <v>-0.10330499999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>15</v>
       </c>
@@ -4071,7 +4073,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>52</v>
       </c>
@@ -4099,7 +4101,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>31</v>
       </c>
@@ -4127,7 +4129,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>44</v>
       </c>
@@ -4155,7 +4157,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>24</v>
       </c>
@@ -4183,7 +4185,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>29</v>
       </c>
